--- a/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-5.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-5.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10450" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40457" uniqueCount="860">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-5.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-5.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40457" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61806" uniqueCount="860">
   <si>
     <t>ANSPs</t>
   </si>
@@ -30723,7 +30723,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>90</v>
@@ -30741,7 +30741,7 @@
         <v>90</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>90</v>
@@ -30810,22 +30810,22 @@
         <v>90</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="AG2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
       <c r="AI2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="AK2" s="5" t="s">
         <v>90</v>
@@ -32136,7 +32136,7 @@
         <v>90</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>90</v>
@@ -32151,7 +32151,7 @@
         <v>90</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>90</v>
@@ -32217,10 +32217,10 @@
         <v>90</v>
       </c>
       <c r="AJ14" s="5" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>831</v>
+        <v>816</v>
       </c>
       <c r="AL14" s="5" t="s">
         <v>90</v>
@@ -32698,22 +32698,22 @@
         <v>90</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>90</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>90</v>
@@ -32746,7 +32746,7 @@
         <v>90</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T19" s="5" t="s">
         <v>90</v>
@@ -32758,7 +32758,7 @@
         <v>90</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="X19" s="5" t="s">
         <v>90</v>
@@ -32782,7 +32782,7 @@
         <v>90</v>
       </c>
       <c r="AE19" s="5" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="AF19" s="5" t="s">
         <v>90</v>
@@ -32791,16 +32791,16 @@
         <v>90</v>
       </c>
       <c r="AH19" s="5" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="AI19" s="5" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="AJ19" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AK19" s="5" t="s">
-        <v>832</v>
+        <v>817</v>
       </c>
       <c r="AL19" s="5" t="s">
         <v>90</v>
@@ -32814,19 +32814,19 @@
         <v>90</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>90</v>
@@ -32838,10 +32838,10 @@
         <v>90</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>90</v>
@@ -32850,13 +32850,13 @@
         <v>90</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="R20" s="5" t="s">
         <v>90</v>
@@ -32865,10 +32865,10 @@
         <v>90</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="V20" s="5" t="s">
         <v>90</v>
@@ -32877,7 +32877,7 @@
         <v>90</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="Y20" s="5" t="s">
         <v>90</v>
@@ -32892,13 +32892,13 @@
         <v>90</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="AD20" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AE20" s="5" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="AF20" s="5" t="s">
         <v>90</v>
@@ -32907,10 +32907,10 @@
         <v>90</v>
       </c>
       <c r="AH20" s="5" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
       <c r="AI20" s="5" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="AJ20" s="5" t="s">
         <v>90</v>
@@ -33049,7 +33049,7 @@
         <v>90</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>90</v>
@@ -33061,7 +33061,7 @@
         <v>90</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>90</v>
@@ -33103,7 +33103,7 @@
         <v>90</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W22" s="5" t="s">
         <v>90</v>
@@ -33118,7 +33118,7 @@
         <v>90</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="AB22" s="5" t="s">
         <v>90</v>
@@ -33133,7 +33133,7 @@
         <v>90</v>
       </c>
       <c r="AF22" s="5" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="AG22" s="5" t="s">
         <v>90</v>
@@ -33148,7 +33148,7 @@
         <v>90</v>
       </c>
       <c r="AK22" s="5" t="s">
-        <v>833</v>
+        <v>818</v>
       </c>
       <c r="AL22" s="5" t="s">
         <v>90</v>
@@ -33403,43 +33403,43 @@
         <v>90</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="S25" s="5" t="s">
         <v>90</v>
@@ -33448,7 +33448,7 @@
         <v>90</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="V25" s="5" t="s">
         <v>90</v>
@@ -33460,7 +33460,7 @@
         <v>90</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>90</v>
@@ -33475,7 +33475,7 @@
         <v>90</v>
       </c>
       <c r="AD25" s="5" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="AE25" s="5" t="s">
         <v>90</v>
@@ -33484,10 +33484,10 @@
         <v>90</v>
       </c>
       <c r="AG25" s="5" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
       <c r="AI25" s="5" t="s">
         <v>90</v>
@@ -33496,10 +33496,10 @@
         <v>90</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>834</v>
+        <v>819</v>
       </c>
       <c r="AL25" s="5" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
     </row>
     <row r="26">
@@ -33513,7 +33513,7 @@
         <v>90</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>90</v>
@@ -33579,10 +33579,10 @@
         <v>90</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="AB26" s="5" t="s">
         <v>90</v>
@@ -33597,7 +33597,7 @@
         <v>90</v>
       </c>
       <c r="AF26" s="5" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="AG26" s="5" t="s">
         <v>90</v>
@@ -33609,7 +33609,7 @@
         <v>90</v>
       </c>
       <c r="AJ26" s="5" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="AK26" s="5" t="s">
         <v>90</v>
@@ -33742,52 +33742,52 @@
         <v>90</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="S28" s="5" t="s">
         <v>90</v>
@@ -33796,16 +33796,16 @@
         <v>90</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="V28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>90</v>
@@ -33817,13 +33817,13 @@
         <v>90</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="AE28" s="5" t="s">
         <v>90</v>
@@ -33832,13 +33832,13 @@
         <v>90</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="AH28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="AJ28" s="5" t="s">
         <v>90</v>
@@ -35015,115 +35015,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>835</v>
+        <v>820</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
     </row>
     <row r="40">
@@ -35131,115 +35131,115 @@
         <v>87</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41">
@@ -35247,115 +35247,115 @@
         <v>88</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>98</v>
+        <v>238</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>98</v>
+        <v>271</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>98</v>
+        <v>287</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>98</v>
+        <v>301</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>98</v>
+        <v>320</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>98</v>
+        <v>337</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>98</v>
+        <v>374</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>98</v>
+        <v>392</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>98</v>
+        <v>428</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>98</v>
+        <v>460</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>98</v>
+        <v>502</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>98</v>
+        <v>522</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>98</v>
+        <v>552</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>98</v>
+        <v>576</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>98</v>
+        <v>598</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>98</v>
+        <v>628</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>98</v>
+        <v>644</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>98</v>
+        <v>672</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>98</v>
+        <v>703</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>98</v>
+        <v>720</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>98</v>
+        <v>754</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>98</v>
+        <v>785</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>98</v>
+        <v>820</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>98</v>
+        <v>850</v>
       </c>
     </row>
     <row r="42">
